--- a/week 2/team-Ulm Protocol.xlsx
+++ b/week 2/team-Ulm Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiko\Documents\GitHub\Abstract\week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9098020F-01DF-48E3-8484-D4A175F0CEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B6235F-6B5B-408D-8F61-BEBD0F993603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -52,7 +52,22 @@
     <t>Activity Diagram</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                   14/04/2022</t>
+    <t xml:space="preserve">                                                                                                                  23 /04/2022</t>
+  </si>
+  <si>
+    <t>State Machine diagram</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>completed but we have  questions regarding this</t>
+  </si>
+  <si>
+    <t>Didn't have time to make</t>
+  </si>
+  <si>
+    <t>done, but still remaining to review on group meeting</t>
   </si>
 </sst>
 </file>
@@ -80,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +129,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor theme="9"/>
       </patternFill>
     </fill>
@@ -130,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -150,6 +189,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,17 +417,17 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.46875" customWidth="1"/>
+    <col min="1" max="1" width="21.234375" customWidth="1"/>
     <col min="2" max="2" width="63.703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17.41015625" customWidth="1"/>
     <col min="5" max="5" width="19.52734375" customWidth="1"/>
-    <col min="6" max="6" width="18.29296875" customWidth="1"/>
+    <col min="6" max="6" width="20.46875" customWidth="1"/>
     <col min="7" max="7" width="18.76171875" customWidth="1"/>
     <col min="8" max="8" width="18.703125" customWidth="1"/>
     <col min="9" max="9" width="49.1171875" customWidth="1"/>
@@ -455,8 +501,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>9</v>
@@ -465,26 +515,35 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11">
-        <v>44666</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -495,47 +554,23 @@
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>

--- a/week 2/team-Ulm Protocol.xlsx
+++ b/week 2/team-Ulm Protocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiko\Documents\GitHub\Abstract\week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C1B6235F-6B5B-408D-8F61-BEBD0F993603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FE5D94B-5A92-4075-B9B8-842B3D2C5CBD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E25FFA-7134-4ABE-A8B8-CFE81EC7FE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -422,22 +422,22 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.29296875" customWidth="1"/>
+    <col min="2" max="2" width="63.703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="49.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.41015625" customWidth="1"/>
+    <col min="5" max="5" width="19.5859375" customWidth="1"/>
+    <col min="6" max="6" width="20.41015625" customWidth="1"/>
+    <col min="7" max="8" width="18.703125" customWidth="1"/>
+    <col min="9" max="9" width="49.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75">
+    <row r="1" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -446,7 +446,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="12.75">
+    <row r="2" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75">
+    <row r="3" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -478,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75">
+    <row r="4" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75">
+    <row r="5" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -518,7 +518,7 @@
       <c r="E5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="12.75">
+    <row r="6" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -532,7 +532,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75">
+    <row r="7" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -541,11 +541,12 @@
       </c>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="7"/>
       <c r="C11" s="2"/>
@@ -555,7 +556,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -566,7 +567,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -576,7 +577,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -586,7 +587,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -596,7 +597,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
